--- a/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Test Cases\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B549C08-CB44-4AB2-93E6-7B09040D582A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D297FB-3C6A-448E-9BF0-58A6ECF23DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Tasks" sheetId="4" r:id="rId1"/>
-    <sheet name="Test_cases_Smoke_learn.epam.com" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_cases_Smoke_learn.epam.com" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="TC_1">'Test_cases_Smoke_learn.epam.com'!#REF!</definedName>
@@ -36,74 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Additional explanation</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Create a checklist for the [learn.epam.com] application.</t>
-  </si>
-  <si>
-    <t>1-2q_Checklist</t>
-  </si>
-  <si>
-    <t>Please see the list.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Point out which tests you think should be added to the regression scope and smoke scope.</t>
-  </si>
-  <si>
-    <t>Please see the list.
-1. Smoke scope.
-It consists of a minimal set of tests run on each build to test software functionalities.
-It is a simple test that shows the product is ready for testing.
-2. Regression scope 
-Usually, to conduct regression testing a tester should select test cases that will cover areas that can be influenced by new changes. So, these testing scenarios are not scripted and depend on the situation.
-As these are repetitive tests, test cases can be automated so that a set of test cases alone can be easily executed on a new build.
-Regression test cases need to be selected very carefully so that maximum functionality is covered in a minimum set of test cases. These set of test cases need continuous improvements for newly added functionality.
-It is appropriate to have a regression test suite at every level of testing (component testing, integration testing, system testing, etc.).
-Various techniques for selecting:
--   Retest all - the entire test cases in the test suite are re-executed. This is an expensive method as it requires more time and resources when compared to the other techniques.
--  Regression Test Selection - In this method, test cases are selected from the test suite to be re-executed. Not that the entire suite has been re-executed. The selection of test cases is done on the basis of code change in the module.
--  Test case Prioritization. Test cases with high Priority are executed first rather than the ones with medium and low priority. The priority of the test case depends on its criticality and its impact on the product and also on the functionality of the product which is used more often.
--  Hybrid - The hybrid technique is a combination of Regression Test Selection and Test case Prioritization.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Create test cases for smoke testing.</t>
-  </si>
-  <si>
-    <t>3q_Test_cases_Smoke</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Compare checklist and test cases and explain what is more reasonable to use and why.</t>
-  </si>
-  <si>
-    <t>4q_Compare_CL_TC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -210,10 +142,6 @@
 2. Click on the "Sign out" button at the end of  Dropdown menu.</t>
   </si>
   <si>
-    <t>1. The dropdown menu of the Avatar opened.
-2. The user has signed out.</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -273,14 +201,21 @@
     <t>User access to the course materials on the eLearn.EPAM.com platform</t>
   </si>
   <si>
-    <t>Smoke Testing scope for learn.epam.com (on March 2023)</t>
+    <t>Test cases for Smoke Testing scope for learn.epam.com (on March 2023)</t>
+  </si>
+  <si>
+    <t>Back on main page</t>
+  </si>
+  <si>
+    <t>1. The dropdown menu of the Avatar opened.
+2. The user has signed out.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,12 +230,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -408,11 +337,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,79 +356,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,114 +729,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CFFBEB-AC3A-46B2-A023-EE1710075256}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="17"/>
-    <col min="2" max="2" width="60.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="105.88671875" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="360" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" location="'1-2q_Checklist'!A1" display="1-2q_Checklist" xr:uid="{56C0AEE9-D5E1-439D-AFB5-112E95B1936F}"/>
-    <hyperlink ref="C4" location="'3q_Test_cases_Smoke'!A1" display="3q_Test_cases_Smoke" xr:uid="{A95794F7-465D-46BC-9FED-D8D99BE6DB67}"/>
-    <hyperlink ref="C3" location="'1-2q_Checklist'!A1" display="1-2q_Checklist" xr:uid="{BA81AD67-4EEB-4B62-B4AB-CFBBE3FD25BA}"/>
-    <hyperlink ref="C5" location="'4q_Compare_CL_TC'!A1" display="4q_Compare_CL_TC" xr:uid="{4E1D46B6-A175-4CD8-9AD5-4511A1E7669F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708F1802-88FC-4065-883F-F8B80C27DE4C}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,253 +748,285 @@
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="50.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+    <row r="1" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>34</v>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
+    <row r="4" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+    <row r="11" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" location="'1-2q_Checklist'!F9" display="presence and work of &quot;Log in&quot; buttons on Start page " xr:uid="{06C43D49-FF47-4AEB-8AB2-0AA98ED37DEF}"/>
+    <hyperlink ref="F4" location="'1-2q_Checklist'!F9" display="presence and work of &quot;Log in&quot; buttons on Start page " xr:uid="{06C43D49-FF47-4AEB-8AB2-0AA98ED37DEF}"/>
+    <hyperlink ref="A2:K2" r:id="rId1" display="Back on main page" xr:uid="{A1B9ED90-C95D-40DC-932C-F02DF8C1CC04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Test Cases\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D297FB-3C6A-448E-9BF0-58A6ECF23DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3E17FC-A098-4187-B4FA-C6BA7B819BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,11 +409,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>6</v>
       </c>

--- a/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Test Cases\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3E17FC-A098-4187-B4FA-C6BA7B819BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225B760A-AD32-4ABA-9806-B5DC8FEAC9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35940" yWindow="-4320" windowWidth="15870" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_cases_Smoke_learn.epam.com" sheetId="2" r:id="rId1"/>
@@ -93,13 +93,6 @@
 5. Click on the "Log in to get full experience" button.</t>
   </si>
   <si>
-    <t>1.  The "Log in" button is presented in the right corner of the Main Menu before the "Public App" widget.
-2.  The "Log in" button is presented in the on the Start page header on the right.
-3. The user is redirected to the EPAM Digital Platform (https://access.epam.com/auth/....) for further login.
-4. The user is on the Start page again.
-5. The user is redirected to the EPAM Digital Platform (https://access.epam.com/auth/....) for further login.</t>
-  </si>
-  <si>
     <t>1. The user hasn't logged in to the application yet.
 2. The user is in on the Base Details Page of any course except those courses that does not require registration.</t>
   </si>
@@ -132,14 +125,7 @@
 4. The user is redirected to the EPAM Digital Platform (https://access.epam.com/auth/....) for further login.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sign out </t>
-  </si>
-  <si>
     <t>1. The user is logged in to the application.</t>
-  </si>
-  <si>
-    <t>1. Click on the Avatar (Profile icon) located in the Main Menu.
-2. Click on the "Sign out" button at the end of  Dropdown menu.</t>
   </si>
   <si>
     <t>Content</t>
@@ -171,12 +157,6 @@
 2. The user is on Base Details Page of any course, that not requires registration of participants.</t>
   </si>
   <si>
-    <t>1. Check the presence of two  "Study" buttons on the Base Details Page of course.
-2. Click on the "Study" button on the header of this page.
-3. Return on the Base Details Page of course.
-4. Click on the "Study" button in the "Summary" widget on this page.</t>
-  </si>
-  <si>
     <t>1. There are two "Study" buttons on the Base Details Page.
 2. The user is redirected to the eLearn.EPAM.com platform with this course.
 3. The user is on the Base Details Page of this course again.
@@ -209,6 +189,26 @@
   <si>
     <t>1. The dropdown menu of the Avatar opened.
 2. The user has signed out.</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>1. The "Log in" button is presented in the right corner of the Main Menu before the "Public App" widget.
+2. The "Log in" button is presented in the on the Start page header on the right.
+3. The user is redirected to the EPAM Digital Platform (https://access.epam.com/auth/....) for further login.
+4. The user is on the Start page again.
+5. The user is redirected to the EPAM Digital Platform (https://access.epam.com/auth/....) for further login.</t>
+  </si>
+  <si>
+    <t>1. Click on the Avatar (Profile icon) located in the Main Menu.
+2. Click on the "Sign out" button at the end of Dropdown menu.</t>
+  </si>
+  <si>
+    <t>1. Check the presence of two "Study" buttons on the Base Details Page of course.
+2. Click on the "Study" button on the header of this page.
+3. Return on the Base Details Page of course.
+4. Click on the "Study" button in the "Summary" widget on this page.</t>
   </si>
 </sst>
 </file>
@@ -394,6 +394,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -408,12 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,34 +754,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
@@ -844,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -866,22 +866,22 @@
         <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -897,22 +897,22 @@
         <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -925,25 +925,25 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -953,28 +953,28 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -984,38 +984,38 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1025,7 +1025,6 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" location="'1-2q_Checklist'!F9" display="presence and work of &quot;Log in&quot; buttons on Start page " xr:uid="{06C43D49-FF47-4AEB-8AB2-0AA98ED37DEF}"/>
     <hyperlink ref="A2:K2" r:id="rId1" display="Back on main page" xr:uid="{A1B9ED90-C95D-40DC-932C-F02DF8C1CC04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Test Cases/Web_app/TestCases for learn.epam.com _STA course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Test Cases\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225B760A-AD32-4ABA-9806-B5DC8FEAC9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31528224-7517-4F33-A0BC-CBA0552DAC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35940" yWindow="-4320" windowWidth="15870" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,12 +46,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t xml:space="preserve"> Req. ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sub-module</t>
-  </si>
-  <si>
     <t>Test summary (title)</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
 2. Click on the "Study" button on the header of this page.
 3. Return on the Base Details Page of course.
 4. Click on the "Study" button in the "Summary" widget on this page.</t>
+  </si>
+  <si>
+    <t>Req. ID</t>
+  </si>
+  <si>
+    <t>Sub-module</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -791,31 +791,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -823,28 +823,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -854,28 +854,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -885,28 +885,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -916,28 +916,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -947,28 +947,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -978,28 +978,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
